--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.0241544228346</v>
+        <v>132.4722847501965</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.12097260175</v>
+        <v>181.2544242598748</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3206552166421</v>
+        <v>163.9557564007453</v>
       </c>
       <c r="AD2" t="n">
-        <v>98024.1544228346</v>
+        <v>132472.2847501965</v>
       </c>
       <c r="AE2" t="n">
-        <v>134120.97260175</v>
+        <v>181254.4242598748</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421576100998378e-06</v>
+        <v>6.374428919569276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>121320.6552166421</v>
+        <v>163955.7564007453</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.49785232870829</v>
+        <v>101.3979557151584</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.2994922862717</v>
+        <v>138.7371563715135</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.44073372424391</v>
+        <v>125.4962768862754</v>
       </c>
       <c r="AD3" t="n">
-        <v>75497.85232870829</v>
+        <v>101397.9557151584</v>
       </c>
       <c r="AE3" t="n">
-        <v>103299.4922862717</v>
+        <v>138737.1563715135</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.509232038707591e-06</v>
+        <v>7.942463779878331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.515046296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>93440.73372424391</v>
+        <v>125496.2768862754</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.58295251648647</v>
+        <v>113.7499718354747</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.2031036370592</v>
+        <v>155.6377297598135</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.6356495355943</v>
+        <v>140.7838832705052</v>
       </c>
       <c r="AD2" t="n">
-        <v>88582.95251648648</v>
+        <v>113749.9718354747</v>
       </c>
       <c r="AE2" t="n">
-        <v>121203.1036370592</v>
+        <v>155637.7297598135</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.994677942432302e-06</v>
+        <v>7.312020613166804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>109635.6495355943</v>
+        <v>140783.8832705052</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.18680731705342</v>
+        <v>98.43907798206217</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1374185452169</v>
+        <v>134.6886893206204</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.580443863036</v>
+        <v>121.8341898486591</v>
       </c>
       <c r="AD3" t="n">
-        <v>73186.80731705342</v>
+        <v>98439.07798206217</v>
       </c>
       <c r="AE3" t="n">
-        <v>100137.4185452169</v>
+        <v>134688.6893206204</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.631800501588465e-06</v>
+        <v>8.244744071887904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>90580.44386303599</v>
+        <v>121834.1898486591</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.3417739821937</v>
+        <v>98.55838883889237</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.0859390068798</v>
+        <v>134.8519356985589</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.24756167011326</v>
+        <v>121.9818562214049</v>
       </c>
       <c r="AD2" t="n">
-        <v>75341.7739821937</v>
+        <v>98558.38883889237</v>
       </c>
       <c r="AE2" t="n">
-        <v>103085.9390068798</v>
+        <v>134851.9356985589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681122187088228e-06</v>
+        <v>8.789397260897945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.174768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>93247.56167011325</v>
+        <v>121981.8562214049</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.80327075536678</v>
+        <v>91.86766729060021</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.77142631665006</v>
+        <v>125.6973953023878</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.91745159452623</v>
+        <v>113.7010123121634</v>
       </c>
       <c r="AD2" t="n">
-        <v>67803.27075536679</v>
+        <v>91867.66729060021</v>
       </c>
       <c r="AE2" t="n">
-        <v>92771.42631665006</v>
+        <v>125697.3953023878</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944684246118434e-06</v>
+        <v>8.984165445435684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.648148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>83917.45159452622</v>
+        <v>113701.0123121634</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.51256219562067</v>
+        <v>104.6624678896133</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.951374858249</v>
+        <v>143.203805948713</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.22127873145661</v>
+        <v>129.5366356968105</v>
       </c>
       <c r="AD2" t="n">
-        <v>74512.56219562067</v>
+        <v>104662.4678896133</v>
       </c>
       <c r="AE2" t="n">
-        <v>101951.374858249</v>
+        <v>143203.805948713</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.451712213181381e-06</v>
+        <v>8.616365679736876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.684027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>92221.27873145661</v>
+        <v>129536.6356968106</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.96700059525298</v>
+        <v>115.304297206553</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.0968192783184</v>
+        <v>157.7644263045177</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.3486316138989</v>
+        <v>142.7076108818208</v>
       </c>
       <c r="AD2" t="n">
-        <v>89967.00059525299</v>
+        <v>115304.297206553</v>
       </c>
       <c r="AE2" t="n">
-        <v>123096.8192783184</v>
+        <v>157764.4263045177</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906468697056618e-06</v>
+        <v>7.153073440397506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.34837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>111348.6316138989</v>
+        <v>142707.6108818208</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.73705589292877</v>
+        <v>99.15960385024941</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8902929219831</v>
+        <v>135.6745446008316</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.26146496594968</v>
+        <v>122.7259564845838</v>
       </c>
       <c r="AD3" t="n">
-        <v>73737.05589292877</v>
+        <v>99159.6038502494</v>
       </c>
       <c r="AE3" t="n">
-        <v>100890.2929219831</v>
+        <v>135674.5446008315</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604093081524208e-06</v>
+        <v>8.170130465321024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.561342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>91261.46496594968</v>
+        <v>122725.9564845838</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.15805076028172</v>
+        <v>104.4642262119639</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4122696075634</v>
+        <v>142.9325629395477</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6838003678578</v>
+        <v>129.2912797397479</v>
       </c>
       <c r="AD2" t="n">
-        <v>82158.05076028172</v>
+        <v>104464.2262119639</v>
       </c>
       <c r="AE2" t="n">
-        <v>112412.2696075634</v>
+        <v>142932.5629395477</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20172190805361e-06</v>
+        <v>8.33438036909954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>101683.8003678578</v>
+        <v>129291.2797397479</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.58854267850758</v>
+        <v>96.28818114442596</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.95060235630008</v>
+        <v>131.7457373764966</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.60233434197293</v>
+        <v>119.1721091076226</v>
       </c>
       <c r="AD2" t="n">
-        <v>71588.54267850758</v>
+        <v>96288.18114442597</v>
       </c>
       <c r="AE2" t="n">
-        <v>97950.60235630008</v>
+        <v>131745.7373764966</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667708808655851e-06</v>
+        <v>8.415658867843425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.717592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>88602.33434197294</v>
+        <v>119172.1091076226</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.90929690455896</v>
+        <v>95.60893537047733</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.02122832217539</v>
+        <v>130.8163633423719</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.76165846128016</v>
+        <v>118.3314332269298</v>
       </c>
       <c r="AD3" t="n">
-        <v>70909.29690455896</v>
+        <v>95608.93537047732</v>
       </c>
       <c r="AE3" t="n">
-        <v>97021.22832217539</v>
+        <v>130816.3633423719</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.760013670045982e-06</v>
+        <v>8.55271711334054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>87761.65846128017</v>
+        <v>118331.4332269298</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.99692635693079</v>
+        <v>112.98719337585</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.401276791906</v>
+        <v>154.5940626199449</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9103479191712</v>
+        <v>139.8398222576693</v>
       </c>
       <c r="AD2" t="n">
-        <v>87996.92635693078</v>
+        <v>112987.19337585</v>
       </c>
       <c r="AE2" t="n">
-        <v>120401.276791906</v>
+        <v>154594.0626199449</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016890455566703e-06</v>
+        <v>7.377048839067609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.325231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>108910.3479191712</v>
+        <v>139839.8222576693</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.46204011500306</v>
+        <v>97.53755847994282</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.14576008489975</v>
+        <v>133.4551905655879</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.68342789436983</v>
+        <v>120.7184144835801</v>
       </c>
       <c r="AD3" t="n">
-        <v>72462.04011500307</v>
+        <v>97537.55847994282</v>
       </c>
       <c r="AE3" t="n">
-        <v>99145.76008489975</v>
+        <v>133455.1905655879</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.671417700729025e-06</v>
+        <v>8.339493504110113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.596064814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>89683.42789436983</v>
+        <v>120718.4144835801</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.56593735532704</v>
+        <v>128.8085773340717</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.3892874442191</v>
+        <v>176.2415781417715</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.0405554495826</v>
+        <v>159.4213292805785</v>
       </c>
       <c r="AD2" t="n">
-        <v>94565.93735532704</v>
+        <v>128808.5773340717</v>
       </c>
       <c r="AE2" t="n">
-        <v>129389.2874442191</v>
+        <v>176241.5781417715</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.619707389522251e-06</v>
+        <v>6.683665639999976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.631944444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>117040.5554495826</v>
+        <v>159421.3292805785</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.52935597814563</v>
+        <v>101.2753416031328</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.3425969692748</v>
+        <v>138.5693903340872</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.47972455679897</v>
+        <v>125.344522204</v>
       </c>
       <c r="AD3" t="n">
-        <v>75529.35597814563</v>
+        <v>101275.3416031328</v>
       </c>
       <c r="AE3" t="n">
-        <v>103342.5969692747</v>
+        <v>138569.3903340872</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.485353290943972e-06</v>
+        <v>7.936058330684546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>93479.72455679897</v>
+        <v>125344.522204</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.3478554424384</v>
+        <v>93.63528314203487</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.88479522776755</v>
+        <v>128.1159252920272</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.82912354289923</v>
+        <v>115.8887211940205</v>
       </c>
       <c r="AD2" t="n">
-        <v>69347.85544243841</v>
+        <v>93635.28314203487</v>
       </c>
       <c r="AE2" t="n">
-        <v>94884.79522776755</v>
+        <v>128115.9252920272</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.817766565575672e-06</v>
+        <v>8.736450539571134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.694444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>85829.12354289922</v>
+        <v>115888.7211940205</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.85085002124966</v>
+        <v>99.34017465147008</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.7824793023657</v>
+        <v>135.9216095372831</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.87762513739855</v>
+        <v>122.9494418902583</v>
       </c>
       <c r="AD2" t="n">
-        <v>75850.85002124966</v>
+        <v>99340.17465147008</v>
       </c>
       <c r="AE2" t="n">
-        <v>103782.4793023657</v>
+        <v>135921.6095372831</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.742866190371978e-06</v>
+        <v>8.808102348745809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.012731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>93877.62513739856</v>
+        <v>122949.4418902583</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.91112329986484</v>
+        <v>97.83065222411818</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4967037443506</v>
+        <v>133.8562143567518</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.71456219404268</v>
+        <v>121.0811651269559</v>
       </c>
       <c r="AD2" t="n">
-        <v>74911.12329986483</v>
+        <v>97830.65222411818</v>
       </c>
       <c r="AE2" t="n">
-        <v>102496.7037443506</v>
+        <v>133856.2143567518</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.584462091632299e-06</v>
+        <v>8.725611862619306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.394675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>92714.56219404268</v>
+        <v>121081.1651269559</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.48849799713261</v>
+        <v>119.5702712877704</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8103550304114</v>
+        <v>163.6013202439302</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9940685152661</v>
+        <v>147.9874398557898</v>
       </c>
       <c r="AD2" t="n">
-        <v>90488.49799713261</v>
+        <v>119570.2712877704</v>
       </c>
       <c r="AE2" t="n">
-        <v>123810.3550304114</v>
+        <v>163601.3202439302</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.756462310796391e-06</v>
+        <v>7.751493105873743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>111994.0685152661</v>
+        <v>147987.4398557898</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.82214642968928</v>
+        <v>107.8402472774304</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.374961665194</v>
+        <v>147.5517839008544</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.60443900805467</v>
+        <v>133.4696487356263</v>
       </c>
       <c r="AD2" t="n">
-        <v>74822.14642968928</v>
+        <v>107840.2472774304</v>
       </c>
       <c r="AE2" t="n">
-        <v>102374.961665194</v>
+        <v>147551.7839008544</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.38365583188424e-06</v>
+        <v>7.953709785505751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>92604.43900805467</v>
+        <v>133469.6487356263</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.86026262401833</v>
+        <v>96.75184954168158</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.32238157318568</v>
+        <v>132.3801489332275</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.93863147219449</v>
+        <v>119.7459733157814</v>
       </c>
       <c r="AD3" t="n">
-        <v>71860.26262401833</v>
+        <v>96751.84954168159</v>
       </c>
       <c r="AE3" t="n">
-        <v>98322.38157318567</v>
+        <v>132380.1489332275</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.685215893091956e-06</v>
+        <v>8.399228831418844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>88938.63147219448</v>
+        <v>119745.9733157814</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.95551241633825</v>
+        <v>117.4572095924373</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.817588878876</v>
+        <v>160.7101360106741</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.8097347824043</v>
+        <v>145.3721861879522</v>
       </c>
       <c r="AD2" t="n">
-        <v>91955.51241633826</v>
+        <v>117457.2095924373</v>
       </c>
       <c r="AE2" t="n">
-        <v>125817.588878876</v>
+        <v>160710.1360106741</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.783039090791583e-06</v>
+        <v>6.945781168188953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113809.7347824043</v>
+        <v>145372.1861879522</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.72300153958982</v>
+        <v>100.3099500617094</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.2393072525961</v>
+        <v>137.2484990370434</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.48173126220293</v>
+        <v>124.1496949184631</v>
       </c>
       <c r="AD3" t="n">
-        <v>74723.00153958982</v>
+        <v>100309.9500617094</v>
       </c>
       <c r="AE3" t="n">
-        <v>102239.3072525961</v>
+        <v>137248.4990370435</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530659177678922e-06</v>
+        <v>8.03145189382847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>92481.73126220293</v>
+        <v>124149.6949184631</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0328012585764</v>
+        <v>143.5258697638609</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8152447527404</v>
+        <v>196.3784269253171</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.707965253578</v>
+        <v>177.6363454784736</v>
       </c>
       <c r="AD2" t="n">
-        <v>108032.8012585764</v>
+        <v>143525.8697638609</v>
       </c>
       <c r="AE2" t="n">
-        <v>147815.2447527404</v>
+        <v>196378.4269253171</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.956037141001613e-06</v>
+        <v>6.594478217147508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>133707.965253578</v>
+        <v>177636.3454784736</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.36992725557212</v>
+        <v>92.19755018301942</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.54675073935103</v>
+        <v>126.1487556292016</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.61878014249955</v>
+        <v>114.1092954428744</v>
       </c>
       <c r="AD2" t="n">
-        <v>68369.92725557213</v>
+        <v>92197.55018301941</v>
       </c>
       <c r="AE2" t="n">
-        <v>93546.75073935103</v>
+        <v>126148.7556292016</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.779909546400147e-06</v>
+        <v>8.796482611619676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84618.78014249954</v>
+        <v>114109.2954428744</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.41076071475521</v>
+        <v>94.90942417384844</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.33910911342181</v>
+        <v>129.8592612628888</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.14463975244946</v>
+        <v>117.465675626611</v>
       </c>
       <c r="AD2" t="n">
-        <v>70410.76071475522</v>
+        <v>94909.42417384844</v>
       </c>
       <c r="AE2" t="n">
-        <v>96339.10911342181</v>
+        <v>129859.2612628888</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.743613890542724e-06</v>
+        <v>8.574702599520818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.700231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>87144.63975244947</v>
+        <v>117465.675626611</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.54332431745281</v>
+        <v>95.04198777654604</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.520488482926</v>
+        <v>130.040640632393</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.30870852949577</v>
+        <v>117.6297444036573</v>
       </c>
       <c r="AD3" t="n">
-        <v>70543.32431745282</v>
+        <v>95041.98777654604</v>
       </c>
       <c r="AE3" t="n">
-        <v>96520.488482926</v>
+        <v>130040.640632393</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.742481887450291e-06</v>
+        <v>8.57301261999846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>87308.70852949578</v>
+        <v>117629.7444036573</v>
       </c>
     </row>
   </sheetData>
